--- a/seronetTemplates/template/experimentSamples.xlsx
+++ b/seronetTemplates/template/experimentSamples.xlsx
@@ -1,148 +1,361 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4584FEF-D4FD-4E40-B0D4-DE7F4C58FE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="14640" yWindow="500" windowWidth="21200" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="experimentSamples.Other.txt" r:id="rId3" sheetId="1"/>
-    <sheet name="lookup" r:id="rId4" sheetId="2"/>
+    <sheet name="experimentSamples.Other.txt" sheetId="1" r:id="rId1"/>
+    <sheet name="lookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="lookupmeasurement_technique1017">lookup!$A$20:$A$79</definedName>
     <definedName name="lookupstudy_time_collected_unit1015">lookup!$A$1:$A$10</definedName>
     <definedName name="lookupstudy_time_t0_event1016">lookup!$A$11:$A$19</definedName>
-    <definedName name="lookupmeasurement_technique1017">lookup!$A$20:$A$79</definedName>
     <definedName name="lookuptype1018">lookup!$A$80:$A$168</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>Apache POI</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="1">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column expsample.user_defined_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column expsample.user_defined_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="1">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded. Please enter either a biological sample user defined ID or ImmPort accession. A single biological sample may be linked to an experiment sample.  The template column is associated with the following database table column biosample.user_defined_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded. Please enter either a biological sample user defined ID or ImmPort accession. A single biological sample may be linked to an experiment sample.  The template column is associated with the following database table column biosample.user_defined_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t>Please enter either a experiment user defined ID or ImmPort accession.  The template column is associated with the following database table column experiment.user_defined_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Please enter either a experiment user defined ID or ImmPort accession.  The template column is associated with the following database table column experiment.user_defined_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="1">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t>Please enter either an assay reagent user defined ID or ImmPort accession.  The template column is associated with the following database table column expsample_2_reagent.reagent_accession and has data type varchar(15)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Please enter either an assay reagent user defined ID or ImmPort accession.  The template column is associated with the following database table column expsample_2_reagent.reagent_accession and has data type varchar(15)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t>Please enter either a treatment user defined ID or ImmPort accession.  The template column is associated with the following database table column expsample_2_treatment.treatment_accession and has data type varchar(15)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please enter either a treatment user defined ID or ImmPort accession.  The template column is associated with the following database table column expsample_2_treatment.treatment_accession and has data type varchar(15)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t>Enter the file name for this assay result. The file size name limit is 240 characters.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Enter the file name for this assay result. The file size name limit is 240 characters.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="1">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <t>The experiment sample name is an alternate identifier that is visible when the experiment sample is shared.  The template column is associated with the following database table column expsample.name and has data type varchar(200)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The experiment sample name is an alternate identifier that is visible when the experiment sample is shared.  The template column is associated with the following database table column expsample.name and has data type varchar(200)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t>Describe important characteristics of the sample being assayed.  The template column is associated with the following database table column expsample.description and has data type varchar(4000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Describe important characteristics of the sample being assayed.  The template column is associated with the following database table column expsample.description and has data type varchar(4000)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <t>Please enter additional result file(s) to link to the experiment sample. The file size name limit is 240 characters.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please enter additional result file(s) to link to the experiment sample. The file size name limit is 240 characters.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <t>Please enter either a study user defined ID or ImmPort accession. This column is only required when both the experiment and biological sample are new.  The template column is associated with the following database table column biosample And experiment.study_accession and has data type varchar(15)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please enter either a study user defined ID or ImmPort accession. This column is only required when both the experiment and biological sample are new.  The template column is associated with the following database table column biosample And experiment.study_accession and has data type varchar(15)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
-        <t>Please enter either a protocol user defined ID or ImmPort accession. This column is required when either the experiment or biological sample are new.  The template column is associated with the following database table column experiment_2_protocol.protocol_accession and has data type varchar(15)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please enter either a protocol user defined ID or ImmPort accession. This column is required when either the experiment or biological sample are new.  The template column is associated with the following database table column experiment_2_protocol.protocol_accession and has data type varchar(15)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
-        <t>Please enter either a subject user defined ID or ImmPort accession for the subject from which the sample was derived.  The template column is associated with the following database table column biosample.subject_accession and has data type varchar(15)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please enter either a subject user defined ID or ImmPort accession for the subject from which the sample was derived.  The template column is associated with the following database table column biosample.subject_accession and has data type varchar(15)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
-        <t>Please enter either a study's planned visit user defined ID or ImmPort accession.  The template column is associated with the following database table column biosample.planned_visit_accession and has data type varchar(15)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please enter either a study's planned visit user defined ID or ImmPort accession.  The template column is associated with the following database table column biosample.planned_visit_accession and has data type varchar(15)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column biosample.type and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column biosample.type and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
-        <t>Enter a sample type that is of finer resolution than the standard sample types provided. If the 'Biological Sample Type' is 'Other', then the sample subtype must be entered.  The template column is associated with the following database table column biosample.subtype and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a sample type that is of finer resolution than the standard sample types provided. If the 'Biological Sample Type' is 'Other', then the sample subtype must be entered.  The template column is associated with the following database table column biosample.subtype and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
-        <t>The biological sample name is an alternate identifier that is visible when the sample is shared.  The template column is associated with the following database table column expsample.name and has data type varchar(200)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The biological sample name is an alternate identifier that is visible when the sample is shared.  The template column is associated with the following database table column expsample.name and has data type varchar(200)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1">
+    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
-        <t>The biological sample description is used to describe details of the sample not captured in other columns.  The template column is associated with the following database table column expsample.description and has data type varchar(4000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>The biological sample description is used to describe details of the sample not captured in other columns.  The template column is associated with the following database table column expsample.description and has data type varchar(4000)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1">
+    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
-        <t>Please enter a number.  The template column is associated with the following database table column biosample.study_time_collected and has data type float</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Please enter a number.  The template column is associated with the following database table column biosample.study_time_collected and has data type float</t>
+        </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1">
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column biosample.study_time_collected_unit and has data type varchar(25)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column biosample.study_time_collected_unit and has data type varchar(25)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="1">
+    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column biosample.study_time_t0_event and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column biosample.study_time_t0_event and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="1">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
-        <t>Enter a time zero event if 'Other' is selected in column 'Study Time T0 Event'.  The template column is associated with the following database table column biosample.study_time_t0_event_specify and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Enter a time zero event if 'Other' is selected in column 'Study Time T0 Event'.  The template column is associated with the following database table column biosample.study_time_t0_event_specify and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="1">
+    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
-        <t>The experiment name is an alternate identifier that is visible when the sample is shared.  The template column is associated with the following database table column expsample.name and has data type varchar(500)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>The experiment name is an alternate identifier that is visible when the sample is shared.  The template column is associated with the following database table column expsample.name and has data type varchar(500)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="1">
+    <comment ref="X3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
-        <t>The experiment description is used to describe details of the experiment not captured in other columns.  The template column is associated with the following database table column expsample.description and has data type varchar(4000)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>The experiment description is used to describe details of the experiment not captured in other columns.  The template column is associated with the following database table column expsample.description and has data type varchar(4000)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="1">
+    <comment ref="Y3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
-        <t>Choose from a drop down list.  The template column is associated with the following database table column experiment.measurement_technique and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Choose from a drop down list.  The template column is associated with the following database table column experiment.measurement_technique and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -719,58 +932,48 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="9.0"/>
-      <color indexed="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="9.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="CCFFFF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -779,127 +982,38 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF99CC"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF3333"/>
+        <fgColor rgb="FFFFBDBD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFBDBD"/>
+        <fgColor rgb="FFFC9090"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FC9090"/>
+        <fgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FC9090"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFF33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF33"/>
+        <fgColor rgb="FFFFFF33"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -914,179 +1028,7 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1101,213 +1043,463 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.46875" customWidth="true"/>
-    <col min="2" max="2" width="13.46875" customWidth="true"/>
-    <col min="3" max="3" width="13.46875" customWidth="true"/>
-    <col min="4" max="4" width="13.46875" customWidth="true"/>
-    <col min="5" max="5" width="13.46875" customWidth="true"/>
-    <col min="6" max="6" width="13.46875" customWidth="true"/>
-    <col min="7" max="7" width="13.46875" customWidth="true"/>
-    <col min="8" max="8" width="13.46875" customWidth="true"/>
-    <col min="9" max="9" width="13.46875" customWidth="true"/>
-    <col min="10" max="10" width="13.46875" customWidth="true"/>
-    <col min="11" max="11" width="13.46875" customWidth="true"/>
-    <col min="12" max="12" width="13.46875" customWidth="true"/>
-    <col min="13" max="13" width="13.46875" customWidth="true"/>
-    <col min="14" max="14" width="13.46875" customWidth="true"/>
-    <col min="15" max="15" width="13.46875" customWidth="true"/>
-    <col min="16" max="16" width="13.46875" customWidth="true"/>
-    <col min="17" max="17" width="13.46875" customWidth="true"/>
-    <col min="18" max="18" width="13.46875" customWidth="true"/>
-    <col min="19" max="19" width="13.46875" customWidth="true"/>
-    <col min="20" max="20" width="13.46875" customWidth="true"/>
-    <col min="21" max="21" width="13.46875" customWidth="true"/>
-    <col min="22" max="22" width="13.46875" customWidth="true"/>
-    <col min="23" max="23" width="13.46875" customWidth="true"/>
-    <col min="24" max="24" width="13.46875" customWidth="true"/>
-    <col min="25" max="25" width="13.46875" customWidth="true"/>
+    <col min="1" max="25" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45.0" customHeight="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="60.0" customHeight="true">
-      <c r="A2" t="s" s="1">
+    <row r="2" spans="1:25" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="75.0" customHeight="true">
-      <c r="A3" t="s" s="8">
+    <row r="3" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="18">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="22">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="14">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="12">
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="12">
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" t="s" s="7">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s" s="22">
+      <c r="L3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s" s="18">
+      <c r="M3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N3" t="s" s="18">
+      <c r="N3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O3" t="s" s="18">
+      <c r="O3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P3" t="s" s="16">
+      <c r="P3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" t="s" s="16">
+      <c r="Q3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R3" t="s" s="16">
+      <c r="R3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S3" t="s" s="18">
+      <c r="S3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T3" t="s" s="18">
+      <c r="T3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U3" t="s" s="18">
+      <c r="U3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V3" t="s" s="16">
+      <c r="V3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W3" t="s" s="22">
+      <c r="W3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="X3" t="s" s="20">
+      <c r="X3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" t="s" s="22">
+      <c r="Y3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1334,7 +1526,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1361,7 +1553,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1388,7 +1580,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1415,7 +1607,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1442,7 +1634,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1469,7 +1661,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1496,7 +1688,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1523,7 +1715,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1550,7 +1742,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1577,7 +1769,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1604,7 +1796,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1631,7 +1823,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1658,7 +1850,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1685,7 +1877,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1712,7 +1904,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1739,7 +1931,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1766,7 +1958,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1793,7 +1985,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1820,7 +2012,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1847,7 +2039,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1874,7 +2066,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1901,7 +2093,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1928,7 +2120,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1955,7 +2147,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1982,7 +2174,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2009,7 +2201,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2036,7 +2228,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2063,7 +2255,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2090,7 +2282,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2117,7 +2309,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2144,7 +2336,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2171,7 +2363,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2198,7 +2390,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2225,7 +2417,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2252,7 +2444,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2279,7 +2471,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2306,7 +2498,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2333,7 +2525,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2360,7 +2552,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2387,7 +2579,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2414,7 +2606,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2441,7 +2633,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2468,7 +2660,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2495,7 +2687,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2522,7 +2714,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2549,7 +2741,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2576,7 +2768,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2603,7 +2795,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2630,7 +2822,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2657,7 +2849,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2684,7 +2876,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2711,7 +2903,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2738,7 +2930,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2765,7 +2957,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2792,7 +2984,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2819,7 +3011,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2846,7 +3038,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2873,7 +3065,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2900,7 +3092,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2927,7 +3119,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2954,7 +3146,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2981,7 +3173,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3008,7 +3200,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3035,7 +3227,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3062,7 +3254,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3089,7 +3281,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3116,7 +3308,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3143,7 +3335,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3170,7 +3362,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3197,7 +3389,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3224,7 +3416,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3251,7 +3443,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3278,7 +3470,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3305,7 +3497,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3332,7 +3524,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3359,7 +3551,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3386,7 +3578,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3413,7 +3605,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3440,7 +3632,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3467,7 +3659,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3494,7 +3686,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3521,7 +3713,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3548,7 +3740,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3575,7 +3767,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3602,7 +3794,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3629,7 +3821,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3656,7 +3848,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3683,7 +3875,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3710,7 +3902,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3737,7 +3929,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3764,7 +3956,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3791,7 +3983,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3818,7 +4010,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3845,7 +4037,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3872,7 +4064,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3899,7 +4091,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3926,7 +4118,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3953,7 +4145,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3980,7 +4172,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4007,7 +4199,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4034,7 +4226,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4061,7 +4253,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4088,7 +4280,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4115,7 +4307,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4142,7 +4334,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4169,7 +4361,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4196,7 +4388,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4223,7 +4415,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4250,7 +4442,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4277,7 +4469,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4304,7 +4496,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4331,7 +4523,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4358,7 +4550,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4385,7 +4577,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4412,7 +4604,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4439,7 +4631,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4466,7 +4658,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4493,7 +4685,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4520,7 +4712,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4547,7 +4739,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4574,7 +4766,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4601,7 +4793,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4628,7 +4820,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4655,7 +4847,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4682,7 +4874,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4709,7 +4901,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4736,7 +4928,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4763,7 +4955,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4790,7 +4982,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4817,7 +5009,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4844,7 +5036,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4871,7 +5063,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4898,7 +5090,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4925,7 +5117,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4952,7 +5144,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4979,7 +5171,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5006,7 +5198,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5033,7 +5225,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5060,7 +5252,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5087,7 +5279,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5114,7 +5306,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5141,7 +5333,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5168,7 +5360,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5195,7 +5387,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5222,7 +5414,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5249,7 +5441,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5276,7 +5468,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5303,7 +5495,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5330,7 +5522,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5357,7 +5549,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5384,7 +5576,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5411,7 +5603,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5438,7 +5630,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5465,7 +5657,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5492,7 +5684,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5519,7 +5711,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5546,7 +5738,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5573,7 +5765,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5600,7 +5792,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5627,7 +5819,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5654,7 +5846,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5681,7 +5873,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5708,7 +5900,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5735,7 +5927,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5762,7 +5954,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5789,7 +5981,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5816,7 +6008,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5843,7 +6035,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5870,7 +6062,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5897,7 +6089,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5924,7 +6116,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5951,7 +6143,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5978,7 +6170,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6005,7 +6197,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6032,7 +6224,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6059,7 +6251,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6086,7 +6278,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6113,7 +6305,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6140,7 +6332,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6167,7 +6359,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6194,7 +6386,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6221,7 +6413,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6248,7 +6440,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6275,7 +6467,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6302,7 +6494,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6329,7 +6521,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6356,7 +6548,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6383,7 +6575,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6410,7 +6602,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6437,7 +6629,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6464,7 +6656,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6491,7 +6683,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6518,7 +6710,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6545,7 +6737,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6572,7 +6764,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6599,7 +6791,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6628,854 +6820,853 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" sqref="T4:T201" allowBlank="true" errorStyle="stop" promptTitle="Study Time Collected Unit" prompt="Please choose required value from the list" errorTitle="Study Time Collected Unit" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Study Time Collected Unit" error="Required value was not selected" promptTitle="Study Time Collected Unit" prompt="Please choose required value from the list" sqref="T4:T201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>lookupstudy_time_collected_unit1015</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="U4:U201" allowBlank="true" errorStyle="stop" promptTitle="Study Time T0 Event" prompt="Please choose required value from the list" errorTitle="Study Time T0 Event" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Study Time T0 Event" error="Required value was not selected" promptTitle="Study Time T0 Event" prompt="Please choose required value from the list" sqref="U4:U201" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>lookupstudy_time_t0_event1016</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="Y4:Y201" allowBlank="true" errorStyle="stop" promptTitle="Measurement Technique" prompt="Please choose required value from the list" errorTitle="Measurement Technique" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Measurement Technique" error="Required value was not selected" promptTitle="Measurement Technique" prompt="Please choose required value from the list" sqref="Y4:Y201" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>lookupmeasurement_technique1017</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="O4:O201" allowBlank="true" errorStyle="stop" promptTitle="Type" prompt="Please choose required value from the list" errorTitle="Type" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Type" error="Required value was not selected" promptTitle="Type" prompt="Please choose required value from the list" sqref="O4:O201" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>lookuptype1018</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A168"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/seronetTemplates/template/experimentSamples.xlsx
+++ b/seronetTemplates/template/experimentSamples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4584FEF-D4FD-4E40-B0D4-DE7F4C58FE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D647FE14-D233-094F-B683-F28C41BB9790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="500" windowWidth="21200" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5740" yWindow="500" windowWidth="21200" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experimentSamples.Other.txt" sheetId="1" r:id="rId1"/>
@@ -215,10 +215,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Please choose from the drop down list.  The template column is associated with the following database table column biosample.type and has data type varchar(50)</t>
         </r>
@@ -296,10 +295,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Please choose from the drop down list.  The template column is associated with the following database table column biosample.study_time_t0_event and has data type varchar(50)</t>
         </r>
@@ -310,10 +308,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Enter a time zero event if 'Other' is selected in column 'Study Time T0 Event'.  The template column is associated with the following database table column biosample.study_time_t0_event_specify and has data type varchar(50)</t>
         </r>
@@ -945,12 +942,14 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1400,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
